--- a/excel/advertisement.xlsx
+++ b/excel/advertisement.xlsx
@@ -18,6 +18,100 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.插屏广告（参数：无）
+2.速度倍数buff奖励（参数：倍数）
+3.产出倍数buff奖励（参数：倍数）
+4.时间奖励（参数：时间，单位：秒）
+5.离线奖励（参数：倍率）
+6.金矿奖励（参数：金矿数量）
+7.代币奖励（参数：代币数量）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+cd为O，视为常驻</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+次数为0，为无效</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
@@ -236,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +344,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -578,11 +687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1015,5 +1124,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/advertisement.xlsx
+++ b/excel/advertisement.xlsx
@@ -402,12 +402,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1116,10 +1115,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/advertisement.xlsx
+++ b/excel/advertisement.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -690,7 +686,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,10 +727,10 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -769,10 +765,10 @@
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -798,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -807,10 +803,10 @@
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -818,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>50101</v>
@@ -827,10 +823,10 @@
         <v>50201</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -854,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>50102</v>
@@ -863,10 +859,10 @@
         <v>50202</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -892,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <v>50103</v>
@@ -901,10 +897,10 @@
         <v>50203</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -930,7 +926,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
         <v>50104</v>
@@ -939,10 +935,10 @@
         <v>50204</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
@@ -968,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>50105</v>
@@ -977,10 +973,10 @@
         <v>50205</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="2">
         <v>4</v>
@@ -1006,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>50106</v>
@@ -1015,10 +1011,10 @@
         <v>50206</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G9" s="2">
         <v>5</v>
@@ -1044,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>50107</v>
@@ -1053,10 +1049,10 @@
         <v>50207</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
@@ -1071,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -1082,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
         <v>50108</v>
@@ -1091,10 +1087,10 @@
         <v>50208</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G11" s="2">
         <v>7</v>
@@ -1109,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>

--- a/excel/advertisement.xlsx
+++ b/excel/advertisement.xlsx
@@ -46,13 +46,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.插屏广告（参数：无）
-2.速度倍数buff奖励（参数：倍数）
-3.产出倍数buff奖励（参数：倍数）
-4.时间奖励（参数：时间，单位：秒）
-5.离线奖励（参数：倍率）
-6.金矿奖励（参数：金矿数量）
-7.代币奖励（参数：代币数量）</t>
+1.速度倍数buff奖励（参数：倍数，持续时间）
+2.产出倍数buff奖励（参数：倍数，持续时间）
+3.时间奖励（参数：时间，单位：秒）
+4.离线奖励（参数：倍率）
+5.水晶产出增益（/1000，参数：百分比）</t>
         </r>
       </text>
     </comment>
@@ -113,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,7 +230,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>插屏广告</t>
+    <t>双倍速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_icon_3</t>
+  </si>
+  <si>
+    <t>ad_3</t>
+  </si>
+  <si>
+    <t>时间奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_icon_4</t>
+  </si>
+  <si>
+    <t>ad_4</t>
+  </si>
+  <si>
+    <t>ad_icon_5</t>
+  </si>
+  <si>
+    <t>ad_5</t>
+  </si>
+  <si>
+    <t>离线奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computerpar</t>
+  </si>
+  <si>
+    <t>水晶增益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,85 +279,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ad_icon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ad_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双倍速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_icon_2</t>
-  </si>
-  <si>
     <t>ad_2</t>
-  </si>
-  <si>
-    <t>双倍奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_icon_3</t>
-  </si>
-  <si>
-    <t>ad_3</t>
-  </si>
-  <si>
-    <t>时间奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_icon_4</t>
-  </si>
-  <si>
-    <t>ad_4</t>
-  </si>
-  <si>
-    <t>时间奖励（商店）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_icon_5</t>
-  </si>
-  <si>
-    <t>ad_5</t>
-  </si>
-  <si>
-    <t>离线奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_icon_6</t>
-  </si>
-  <si>
-    <t>ad_6</t>
-  </si>
-  <si>
-    <t>金矿奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_icon_7</t>
-  </si>
-  <si>
-    <t>ad_7</t>
-  </si>
-  <si>
-    <t>代币奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_icon_8</t>
-  </si>
-  <si>
-    <t>ad_8</t>
-  </si>
-  <si>
-    <t>7,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代币数量(/1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,11 +371,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -683,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -695,7 +669,7 @@
     <col min="3" max="3" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,8 +706,11 @@
       <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -770,8 +747,11 @@
       <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -794,7 +774,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -808,8 +788,11 @@
       <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -823,34 +806,39 @@
         <v>50201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="4">
+        <v>2150</v>
+      </c>
       <c r="I4" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
+      <c r="M4" s="2">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>50102</v>
@@ -859,19 +847,19 @@
         <v>50202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
-        <v>2</v>
+      <c r="H5" s="4">
+        <v>2150</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J5" s="2">
         <v>10</v>
@@ -882,13 +870,16 @@
       <c r="L5" s="2">
         <v>0</v>
       </c>
+      <c r="M5" s="2">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>50103</v>
@@ -897,31 +888,34 @@
         <v>50203</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>1800</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J6" s="2">
         <v>10</v>
       </c>
       <c r="K6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
+      <c r="M6" s="2">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -935,31 +929,34 @@
         <v>50204</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
       </c>
       <c r="H7" s="2">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>10</v>
       </c>
       <c r="K7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
+      <c r="M7" s="2">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -973,19 +970,19 @@
         <v>50205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2">
-        <v>840</v>
+        <v>2000</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J8" s="2">
         <v>3</v>
@@ -996,119 +993,8 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2">
-        <v>50106</v>
-      </c>
-      <c r="D9" s="2">
-        <v>50206</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>10</v>
-      </c>
-      <c r="K9" s="3">
-        <v>6</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2">
-        <v>50107</v>
-      </c>
-      <c r="D10" s="2">
-        <v>50207</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>600</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2">
-        <v>50108</v>
-      </c>
-      <c r="D11" s="2">
-        <v>50208</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="2">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1200</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
+      <c r="M8" s="2">
+        <v>11200</v>
       </c>
     </row>
   </sheetData>

--- a/excel/advertisement.xlsx
+++ b/excel/advertisement.xlsx
@@ -268,30 +268,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>水晶增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_icon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_icon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代币数量(/1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>computerpar</t>
-  </si>
-  <si>
-    <t>水晶增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_icon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_icon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代币数量(/1000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +661,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:M13"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,7 +708,7 @@
         <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -806,10 +807,10 @@
         <v>50201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -847,10 +848,10 @@
         <v>50202</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -961,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>50105</v>

--- a/excel/advertisement.xlsx
+++ b/excel/advertisement.xlsx
@@ -660,7 +660,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:M13"/>
+      <selection activeCell="N1" sqref="N1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,7 +707,7 @@
         <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">

--- a/excel/advertisement.xlsx
+++ b/excel/advertisement.xlsx
@@ -24,37 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.速度倍数buff奖励（参数：倍数，持续时间）
-2.产出倍数buff奖励（参数：倍数，持续时间）
-3.时间奖励（参数：时间，单位：秒）
-4.离线奖励（参数：倍率）
-5.水晶产出增益（/1000，参数：百分比）</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,14 +110,6 @@
     <t>resource</t>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,14 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,13 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>computerpar</t>
-  </si>
-  <si>
     <t>水晶增益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,7 +238,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代币数量(/1000)</t>
+    <t>effectid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101,40101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30201,40101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30301,40101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30401,40101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30501,40101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,60 +628,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:Q1048576"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -730,74 +696,62 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>50101</v>
@@ -806,39 +760,33 @@
         <v>50201</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2150</v>
+      <c r="H4" s="2">
+        <v>60</v>
       </c>
       <c r="I4" s="2">
-        <v>60</v>
-      </c>
-      <c r="J4" s="2">
         <v>10</v>
       </c>
-      <c r="K4" s="3">
+      <c r="J4" s="3">
         <v>3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
-        <v>11200</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
         <v>50102</v>
@@ -847,39 +795,33 @@
         <v>50202</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2150</v>
+      <c r="H5" s="2">
+        <v>60</v>
       </c>
       <c r="I5" s="2">
-        <v>60</v>
-      </c>
-      <c r="J5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="3">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>11200</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>50103</v>
@@ -888,39 +830,33 @@
         <v>50203</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="2">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="I6" s="2">
-        <v>120</v>
-      </c>
-      <c r="J6" s="2">
         <v>10</v>
       </c>
-      <c r="K6" s="3">
+      <c r="J6" s="3">
         <v>4</v>
       </c>
-      <c r="L6" s="2">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <v>11200</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>50104</v>
@@ -929,39 +865,33 @@
         <v>50204</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>11200</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>50105</v>
@@ -970,31 +900,25 @@
         <v>50205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H8" s="2">
-        <v>2000</v>
+        <v>120</v>
       </c>
       <c r="I8" s="2">
-        <v>120</v>
-      </c>
-      <c r="J8" s="2">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="J8" s="3">
         <v>6</v>
       </c>
-      <c r="L8" s="2">
+      <c r="K8" s="2">
         <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>11200</v>
       </c>
     </row>
   </sheetData>

--- a/excel/advertisement.xlsx
+++ b/excel/advertisement.xlsx
@@ -24,6 +24,38 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+效果表类型：
+31.矿产CD减少（参数：倍率/1000，持续时间（s））
+32.矿产奖励翻倍（参数：倍率/1000，持续时间（s））
+33.时间奖励（参数：时间（s））
+34.离线奖励（参数：倍率/1000）
+35.钻石收益增加（参数：百分比/1000）
+41.小猪产矿机（参数：数量/1000，CD）</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -631,7 +663,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
